--- a/Allocation/logins.xlsx
+++ b/Allocation/logins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="5835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README FIRST" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>Mona Drayton</t>
+  </si>
+  <si>
+    <t>MDRAYTON</t>
+  </si>
+  <si>
+    <t>Jean Johnson</t>
+  </si>
+  <si>
+    <t>JJOHNSON</t>
   </si>
 </sst>
 </file>
@@ -708,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -765,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -782,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -802,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -822,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -842,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -859,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -876,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -896,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -913,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -933,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -953,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -970,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -990,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1007,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1027,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -1047,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1067,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -1087,7 +1099,7 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -1101,50 +1113,50 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1152,18 +1164,52 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>99</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>3</v>
       </c>
     </row>
@@ -1180,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
